--- a/DbLayouts/L6-共同作業/SystemParas.xlsx
+++ b/DbLayouts/L6-共同作業/SystemParas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2D73934-AB49-4670-8A44-9C35232B8CAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF7E665E-FF3C-4923-992B-867A7346408D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,11 +18,19 @@
     <sheet name="備份" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="229">
   <si>
     <t>讀取Key條件</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -678,9 +686,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>預收期數</t>
-  </si>
-  <si>
     <t>ReduceAmtLimit</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -923,6 +928,18 @@
   <si>
     <t>L6501維護
 預設值:3                                                  追回[繳納1期]但[未繳足3期]期款即結清（含部分還款達60萬之案件)，未曾繳款者則同時追回房貸專員業績</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PreRepayTermsBatch</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>批次預收期數</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>單筆預收期數</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1122,7 +1139,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1229,6 +1246,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1576,10 +1596,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G66"/>
+  <dimension ref="A1:G67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1595,10 +1615,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="37"/>
+      <c r="B1" s="38"/>
       <c r="C1" s="9" t="s">
         <v>25</v>
       </c>
@@ -1610,10 +1630,10 @@
       <c r="G1" s="12"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="36"/>
-      <c r="B2" s="37"/>
+      <c r="A2" s="37"/>
+      <c r="B2" s="38"/>
       <c r="C2" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>11</v>
@@ -1623,10 +1643,10 @@
       <c r="G2" s="15"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="37"/>
+      <c r="B3" s="38"/>
       <c r="C3" s="19" t="s">
         <v>102</v>
       </c>
@@ -1636,10 +1656,10 @@
       <c r="G3" s="15"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="37"/>
+      <c r="B4" s="38"/>
       <c r="C4" s="17"/>
       <c r="D4" s="16"/>
       <c r="E4" s="15"/>
@@ -1647,10 +1667,10 @@
       <c r="G4" s="15"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="37"/>
+      <c r="B5" s="38"/>
       <c r="C5" s="20"/>
       <c r="D5" s="16"/>
       <c r="E5" s="15"/>
@@ -1658,10 +1678,10 @@
       <c r="G5" s="15"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="37"/>
+      <c r="B6" s="38"/>
       <c r="C6" s="17"/>
       <c r="D6" s="16"/>
       <c r="E6" s="15"/>
@@ -1669,10 +1689,10 @@
       <c r="G6" s="15"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="37"/>
+      <c r="B7" s="38"/>
       <c r="C7" s="17"/>
       <c r="D7" s="16"/>
       <c r="E7" s="15"/>
@@ -1742,7 +1762,7 @@
       </c>
       <c r="F10" s="19"/>
       <c r="G10" s="22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.3">
@@ -1795,10 +1815,10 @@
         <v>5</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D13" s="19" t="s">
         <v>95</v>
@@ -1817,10 +1837,10 @@
         <v>6</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D14" s="19" t="s">
         <v>95</v>
@@ -1839,10 +1859,10 @@
         <v>7</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D15" s="19" t="s">
         <v>95</v>
@@ -1861,10 +1881,10 @@
         <v>8</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D16" s="19" t="s">
         <v>95</v>
@@ -1883,10 +1903,10 @@
         <v>9</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D17" s="19" t="s">
         <v>95</v>
@@ -1905,10 +1925,10 @@
         <v>10</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D18" s="19" t="s">
         <v>95</v>
@@ -1927,10 +1947,10 @@
         <v>11</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D19" s="19" t="s">
         <v>95</v>
@@ -1971,10 +1991,10 @@
         <v>13</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D21" s="19" t="s">
         <v>95</v>
@@ -1993,10 +2013,10 @@
         <v>14</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D22" s="19" t="s">
         <v>95</v>
@@ -2015,10 +2035,10 @@
         <v>15</v>
       </c>
       <c r="B23" s="28" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D23" s="19" t="s">
         <v>95</v>
@@ -2037,10 +2057,10 @@
         <v>16</v>
       </c>
       <c r="B24" s="28" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D24" s="19" t="s">
         <v>95</v>
@@ -2059,10 +2079,10 @@
         <v>17</v>
       </c>
       <c r="B25" s="28" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D25" s="19" t="s">
         <v>95</v>
@@ -2081,10 +2101,10 @@
         <v>18</v>
       </c>
       <c r="B26" s="28" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D26" s="19" t="s">
         <v>95</v>
@@ -2103,10 +2123,10 @@
         <v>19</v>
       </c>
       <c r="B27" s="28" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D27" s="19" t="s">
         <v>95</v>
@@ -2203,7 +2223,7 @@
       </c>
       <c r="F31" s="19"/>
       <c r="G31" s="22" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="64.8" x14ac:dyDescent="0.3">
@@ -2225,7 +2245,7 @@
       </c>
       <c r="F32" s="19"/>
       <c r="G32" s="22" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
@@ -2237,7 +2257,7 @@
         <v>153</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D33" s="19" t="s">
         <v>95</v>
@@ -2247,7 +2267,7 @@
       </c>
       <c r="F33" s="19"/>
       <c r="G33" s="22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
@@ -2259,7 +2279,7 @@
         <v>154</v>
       </c>
       <c r="C34" s="19" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D34" s="19" t="s">
         <v>95</v>
@@ -2274,14 +2294,14 @@
     </row>
     <row r="35" spans="1:7" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="19">
-        <f t="shared" ref="A35:A55" si="3">A34+1</f>
+        <f t="shared" ref="A35:A39" si="3">A34+1</f>
         <v>27</v>
       </c>
       <c r="B35" s="19" t="s">
         <v>156</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D35" s="19" t="s">
         <v>95</v>
@@ -2303,7 +2323,7 @@
         <v>157</v>
       </c>
       <c r="C36" s="19" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D36" s="19" t="s">
         <v>95</v>
@@ -2325,7 +2345,7 @@
         <v>159</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D37" s="19" t="s">
         <v>95</v>
@@ -2347,7 +2367,7 @@
         <v>160</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D38" s="19" t="s">
         <v>95</v>
@@ -2366,7 +2386,7 @@
         <v>31</v>
       </c>
       <c r="B39" s="19" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C39" s="19" t="s">
         <v>162</v>
@@ -2384,14 +2404,14 @@
     </row>
     <row r="40" spans="1:7" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="19">
-        <f t="shared" si="3"/>
+        <f>A39+1</f>
         <v>32</v>
       </c>
       <c r="B40" s="19" t="s">
         <v>164</v>
       </c>
       <c r="C40" s="25" t="s">
-        <v>165</v>
+        <v>228</v>
       </c>
       <c r="D40" s="19" t="s">
         <v>95</v>
@@ -2406,14 +2426,14 @@
     </row>
     <row r="41" spans="1:7" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="19">
-        <f t="shared" si="3"/>
+        <f>A40+1</f>
         <v>33</v>
       </c>
       <c r="B41" s="19" t="s">
-        <v>171</v>
-      </c>
-      <c r="C41" s="19" t="s">
-        <v>169</v>
+        <v>226</v>
+      </c>
+      <c r="C41" s="36" t="s">
+        <v>227</v>
       </c>
       <c r="D41" s="19" t="s">
         <v>95</v>
@@ -2422,18 +2442,17 @@
         <v>3</v>
       </c>
       <c r="F41" s="19"/>
-      <c r="G41" s="22"/>
     </row>
     <row r="42" spans="1:7" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="19">
-        <f t="shared" si="3"/>
+        <f>A41+1</f>
         <v>34</v>
       </c>
       <c r="B42" s="19" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C42" s="19" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D42" s="19" t="s">
         <v>95</v>
@@ -2444,100 +2463,98 @@
       <c r="F42" s="19"/>
       <c r="G42" s="22"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="19">
-        <f t="shared" si="3"/>
+        <f>A42+1</f>
         <v>35</v>
       </c>
       <c r="B43" s="19" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C43" s="19" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="D43" s="19" t="s">
         <v>95</v>
       </c>
       <c r="E43" s="19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F43" s="19"/>
-      <c r="G43" s="22" t="s">
-        <v>184</v>
-      </c>
+      <c r="G43" s="22"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="27">
         <v>36</v>
       </c>
       <c r="B44" s="19" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C44" s="19" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D44" s="19" t="s">
-        <v>176</v>
+        <v>95</v>
       </c>
       <c r="E44" s="19">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="F44" s="19"/>
-      <c r="G44" s="22"/>
+      <c r="G44" s="22" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="A45:A56" si="4">A44+1</f>
         <v>37</v>
       </c>
       <c r="B45" s="19" t="s">
-        <v>206</v>
+        <v>173</v>
       </c>
       <c r="C45" s="19" t="s">
-        <v>30</v>
+        <v>174</v>
       </c>
       <c r="D45" s="19" t="s">
-        <v>32</v>
+        <v>175</v>
       </c>
       <c r="E45" s="19">
-        <v>8</v>
-      </c>
-      <c r="G45" s="21" t="s">
-        <v>132</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="F45" s="19"/>
+      <c r="G45" s="22"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>38</v>
       </c>
-      <c r="B46" s="29" t="s">
-        <v>207</v>
-      </c>
-      <c r="C46" s="29" t="s">
-        <v>208</v>
-      </c>
-      <c r="D46" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="E46" s="29">
-        <v>3</v>
-      </c>
-      <c r="F46" s="30"/>
-      <c r="G46" s="31" t="s">
-        <v>209</v>
+      <c r="B46" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="C46" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D46" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E46" s="19">
+        <v>8</v>
+      </c>
+      <c r="G46" s="21" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>39</v>
       </c>
       <c r="B47" s="29" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C47" s="29" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D47" s="29" t="s">
         <v>18</v>
@@ -2547,183 +2564,196 @@
       </c>
       <c r="F47" s="30"/>
       <c r="G47" s="31" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>40</v>
       </c>
-      <c r="B48" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="C48" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="D48" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="E48" s="19">
-        <v>8</v>
-      </c>
-      <c r="F48" s="19"/>
-      <c r="G48" s="22" t="s">
-        <v>131</v>
+      <c r="B48" s="29" t="s">
+        <v>210</v>
+      </c>
+      <c r="C48" s="29" t="s">
+        <v>211</v>
+      </c>
+      <c r="D48" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="E48" s="29">
+        <v>3</v>
+      </c>
+      <c r="F48" s="30"/>
+      <c r="G48" s="31" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>41</v>
       </c>
-      <c r="B49" s="29" t="s">
-        <v>217</v>
-      </c>
-      <c r="C49" s="29" t="s">
-        <v>218</v>
-      </c>
-      <c r="D49" s="29" t="s">
-        <v>219</v>
-      </c>
-      <c r="E49" s="29">
-        <v>1</v>
-      </c>
-      <c r="F49" s="29"/>
-      <c r="G49" s="35" t="s">
-        <v>220</v>
+      <c r="B49" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="C49" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D49" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E49" s="19">
+        <v>8</v>
+      </c>
+      <c r="F49" s="19"/>
+      <c r="G49" s="22" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>42</v>
       </c>
-      <c r="B50" s="33" t="s">
-        <v>213</v>
-      </c>
-      <c r="C50" s="33" t="s">
-        <v>214</v>
-      </c>
-      <c r="D50" s="33" t="s">
+      <c r="B50" s="29" t="s">
         <v>216</v>
       </c>
-      <c r="E50" s="33">
-        <v>100</v>
-      </c>
-      <c r="F50" s="33"/>
-      <c r="G50" s="34" t="s">
-        <v>215</v>
+      <c r="C50" s="29" t="s">
+        <v>217</v>
+      </c>
+      <c r="D50" s="29" t="s">
+        <v>218</v>
+      </c>
+      <c r="E50" s="29">
+        <v>1</v>
+      </c>
+      <c r="F50" s="29"/>
+      <c r="G50" s="35" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43</v>
       </c>
       <c r="B51" s="33" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="C51" s="33" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="D51" s="33" t="s">
-        <v>105</v>
+        <v>215</v>
       </c>
       <c r="E51" s="33">
         <v>100</v>
       </c>
       <c r="F51" s="33"/>
       <c r="G51" s="34" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>44</v>
       </c>
-      <c r="B52" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="C52" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="D52" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="E52" s="19"/>
-      <c r="F52" s="19"/>
-      <c r="G52" s="22"/>
+      <c r="B52" s="33" t="s">
+        <v>220</v>
+      </c>
+      <c r="C52" s="33" t="s">
+        <v>221</v>
+      </c>
+      <c r="D52" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="E52" s="33">
+        <v>100</v>
+      </c>
+      <c r="F52" s="33"/>
+      <c r="G52" s="34" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>45</v>
       </c>
       <c r="B53" s="19" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C53" s="19" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D53" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="E53" s="19">
-        <v>6</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="E53" s="19"/>
       <c r="F53" s="19"/>
       <c r="G53" s="22"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>46</v>
       </c>
       <c r="B54" s="19" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="C54" s="19" t="s">
-        <v>22</v>
+        <v>101</v>
       </c>
       <c r="D54" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="E54" s="19"/>
+        <v>18</v>
+      </c>
+      <c r="E54" s="19">
+        <v>6</v>
+      </c>
       <c r="F54" s="19"/>
       <c r="G54" s="22"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>47</v>
       </c>
       <c r="B55" s="19" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C55" s="19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D55" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="E55" s="19">
-        <v>6</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="E55" s="19"/>
       <c r="F55" s="19"/>
       <c r="G55" s="22"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="19"/>
-      <c r="B56" s="19"/>
-      <c r="C56" s="19"/>
-      <c r="D56" s="19"/>
-      <c r="E56" s="19"/>
+      <c r="A56" s="32">
+        <f t="shared" si="4"/>
+        <v>48</v>
+      </c>
+      <c r="B56" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C56" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D56" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E56" s="19">
+        <v>6</v>
+      </c>
       <c r="F56" s="19"/>
       <c r="G56" s="22"/>
     </row>
-    <row r="57" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="19"/>
       <c r="B57" s="19"/>
       <c r="C57" s="19"/>
@@ -2732,7 +2762,7 @@
       <c r="F57" s="19"/>
       <c r="G57" s="22"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="19"/>
       <c r="B58" s="19"/>
       <c r="C58" s="19"/>
@@ -2812,6 +2842,15 @@
       <c r="E66" s="19"/>
       <c r="F66" s="19"/>
       <c r="G66" s="22"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67" s="19"/>
+      <c r="B67" s="19"/>
+      <c r="C67" s="19"/>
+      <c r="D67" s="19"/>
+      <c r="E67" s="19"/>
+      <c r="F67" s="19"/>
+      <c r="G67" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2889,10 +2928,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="37"/>
+      <c r="B1" s="38"/>
       <c r="C1" s="9" t="s">
         <v>25</v>
       </c>
@@ -2904,8 +2943,8 @@
       <c r="G1" s="12"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="36"/>
-      <c r="B2" s="37"/>
+      <c r="A2" s="37"/>
+      <c r="B2" s="38"/>
       <c r="C2" s="13" t="s">
         <v>10</v>
       </c>
@@ -2917,10 +2956,10 @@
       <c r="G2" s="15"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="37"/>
+      <c r="B3" s="38"/>
       <c r="C3" s="19" t="s">
         <v>102</v>
       </c>
@@ -2930,10 +2969,10 @@
       <c r="G3" s="15"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="37"/>
+      <c r="B4" s="38"/>
       <c r="C4" s="17"/>
       <c r="D4" s="16"/>
       <c r="E4" s="15"/>
@@ -2941,10 +2980,10 @@
       <c r="G4" s="15"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="37"/>
+      <c r="B5" s="38"/>
       <c r="C5" s="20"/>
       <c r="D5" s="16"/>
       <c r="E5" s="15"/>
@@ -2952,10 +2991,10 @@
       <c r="G5" s="15"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="37"/>
+      <c r="B6" s="38"/>
       <c r="C6" s="17"/>
       <c r="D6" s="16"/>
       <c r="E6" s="15"/>
@@ -2963,10 +3002,10 @@
       <c r="G6" s="15"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="37"/>
+      <c r="B7" s="38"/>
       <c r="C7" s="17"/>
       <c r="D7" s="16"/>
       <c r="E7" s="15"/>
